--- a/data/trans_orig/P5705-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P5705-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>334074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>307463</v>
+        <v>309998</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>355834</v>
+        <v>357626</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5719072871438712</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5263515058751732</v>
+        <v>0.5306901593235852</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6091575551501922</v>
+        <v>0.6122256249319086</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>549</v>
@@ -765,19 +765,19 @@
         <v>565032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>534935</v>
+        <v>535047</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>592607</v>
+        <v>594534</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6132628771642817</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5805968465430518</v>
+        <v>0.5807186933486962</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6431922981719274</v>
+        <v>0.6452837256732972</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>872</v>
@@ -786,19 +786,19 @@
         <v>899106</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>859466</v>
+        <v>860711</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>935536</v>
+        <v>937420</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5972166461208935</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5708864274279982</v>
+        <v>0.5717135824710794</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6214147373146587</v>
+        <v>0.6226662453163462</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>144696</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>125971</v>
+        <v>126122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>168141</v>
+        <v>166886</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2477075898127057</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2156519639980349</v>
+        <v>0.2159105324181126</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2878434546951407</v>
+        <v>0.285695237045909</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>170</v>
@@ -836,19 +836,19 @@
         <v>182016</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>157952</v>
+        <v>158240</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>207780</v>
+        <v>208754</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1975530614688015</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1714349514861283</v>
+        <v>0.1717468910740474</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2255158246695123</v>
+        <v>0.2265736986061161</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>316</v>
@@ -857,19 +857,19 @@
         <v>326712</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>295916</v>
+        <v>296328</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>358239</v>
+        <v>360223</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2170133363501719</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1965573831427289</v>
+        <v>0.1968313345391455</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2379543667721906</v>
+        <v>0.2392724341951736</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>77515</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63581</v>
+        <v>62719</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>96560</v>
+        <v>95636</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1326998111119842</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1088455721569253</v>
+        <v>0.1073695786835655</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1653022279791309</v>
+        <v>0.1637198955406935</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>116</v>
@@ -907,19 +907,19 @@
         <v>121708</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>103872</v>
+        <v>101081</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>146537</v>
+        <v>143310</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1320970454325076</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1127385303479868</v>
+        <v>0.1097091784535118</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1590457602190056</v>
+        <v>0.1555427157973731</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>194</v>
@@ -928,19 +928,19 @@
         <v>199223</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>173464</v>
+        <v>172904</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>226067</v>
+        <v>228299</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1323309223365279</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1152209035080888</v>
+        <v>0.1148485445953124</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1501612748717034</v>
+        <v>0.1516437988236324</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>23998</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15546</v>
+        <v>15933</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35392</v>
+        <v>36491</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04108294434102145</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0266131057692047</v>
+        <v>0.02727584104310907</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06058732000810048</v>
+        <v>0.0624700295520299</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -978,19 +978,19 @@
         <v>45281</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33723</v>
+        <v>32028</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60310</v>
+        <v>60176</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04914601676624331</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03660132495902742</v>
+        <v>0.03476208998362856</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06545794524514133</v>
+        <v>0.06531294930164963</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -999,19 +999,19 @@
         <v>69279</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54542</v>
+        <v>53420</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88494</v>
+        <v>85609</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04601749356077513</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03622891514190447</v>
+        <v>0.03548336236883744</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05878082232522717</v>
+        <v>0.05686415815413162</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>3857</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9029</v>
+        <v>9587</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006602367590417375</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001677556830387546</v>
+        <v>0.001682206201621089</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0154572894711708</v>
+        <v>0.01641277674375573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1049,19 +1049,19 @@
         <v>7316</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3104</v>
+        <v>3043</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14601</v>
+        <v>14311</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007940999168165866</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003369435492960563</v>
+        <v>0.003302849015261785</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0158468965820713</v>
+        <v>0.01553283253614616</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1070,19 +1070,19 @@
         <v>11173</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5866</v>
+        <v>5759</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19478</v>
+        <v>18780</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007421601631631473</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003896532783691</v>
+        <v>0.00382539619003037</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01293775529831122</v>
+        <v>0.01247463371580631</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>674686</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>641081</v>
+        <v>641954</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>707926</v>
+        <v>705195</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6259298183967331</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5947534181107249</v>
+        <v>0.5955631108972885</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6567679429961417</v>
+        <v>0.6542336652315415</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>615</v>
@@ -1195,19 +1195,19 @@
         <v>631990</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>601045</v>
+        <v>600009</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>664673</v>
+        <v>663843</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5981679662178834</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5688789516190238</v>
+        <v>0.5678979423112938</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.629101550164169</v>
+        <v>0.6283161813993027</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1275</v>
@@ -1216,19 +1216,19 @@
         <v>1306676</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1261916</v>
+        <v>1266281</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1349862</v>
+        <v>1356472</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6121877442849583</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5912172661954971</v>
+        <v>0.5932621278215494</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.63242080136818</v>
+        <v>0.6355175382055477</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>282941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>252956</v>
+        <v>255079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315474</v>
+        <v>312782</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.262494701096788</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2346762653121863</v>
+        <v>0.2366456218707421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2926764380046032</v>
+        <v>0.2901792074710686</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>262</v>
@@ -1266,19 +1266,19 @@
         <v>266633</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>236700</v>
+        <v>239746</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>295115</v>
+        <v>295650</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2523634502128703</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2240322031807327</v>
+        <v>0.2269151387707107</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2793213952286477</v>
+        <v>0.2798280719440265</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>540</v>
@@ -1287,19 +1287,19 @@
         <v>549574</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>511276</v>
+        <v>512875</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>592501</v>
+        <v>591955</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2574797474980562</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2395369262201697</v>
+        <v>0.2402856555855032</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2775913083314706</v>
+        <v>0.2773354711777237</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>86091</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>69521</v>
+        <v>69785</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106841</v>
+        <v>103488</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07986959000652459</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06449715115169473</v>
+        <v>0.06474239680458245</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09912056313826798</v>
+        <v>0.09600972387721118</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>115</v>
@@ -1337,19 +1337,19 @@
         <v>119886</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>101338</v>
+        <v>101047</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>143557</v>
+        <v>142659</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1134698747656103</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09591426591329653</v>
+        <v>0.09563956442296728</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1358743974076312</v>
+        <v>0.1350242385770254</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>200</v>
@@ -1358,19 +1358,19 @@
         <v>205977</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>177699</v>
+        <v>179088</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>231917</v>
+        <v>233725</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0965016792620054</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08325339725253592</v>
+        <v>0.08390387852808232</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1086547653383886</v>
+        <v>0.1095018102543347</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>31681</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21228</v>
+        <v>21267</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44204</v>
+        <v>45054</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0293917164826614</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01969353134796399</v>
+        <v>0.01972977823063126</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04100936551199485</v>
+        <v>0.04179781469359209</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1408,19 +1408,19 @@
         <v>36009</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25538</v>
+        <v>24726</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51238</v>
+        <v>49416</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03408183153430662</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02417171010998677</v>
+        <v>0.02340280944130916</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04849566377829807</v>
+        <v>0.04677155148942403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -1429,19 +1429,19 @@
         <v>67690</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53742</v>
+        <v>52521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85470</v>
+        <v>86583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03171331621661436</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02517874719050751</v>
+        <v>0.02460657001040587</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04004348572282766</v>
+        <v>0.04056456771857606</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8863</v>
+        <v>8946</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002314174017292925</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008222121854405051</v>
+        <v>0.008299953869744159</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6393</v>
+        <v>6776</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001916877269329468</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.006050584874654204</v>
+        <v>0.006413046597743565</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1500,19 +1500,19 @@
         <v>4520</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1071</v>
+        <v>1653</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11455</v>
+        <v>11559</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002117512738365708</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0005016120931079807</v>
+        <v>0.0007745394019464366</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005366802144118776</v>
+        <v>0.005415604477520423</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>701213</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>669531</v>
+        <v>665884</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>733137</v>
+        <v>731697</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6251932352139469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5969460841132823</v>
+        <v>0.593694664937467</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6536564205192775</v>
+        <v>0.6523724793046092</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>537</v>
@@ -1625,19 +1625,19 @@
         <v>541596</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>510595</v>
+        <v>509499</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>572903</v>
+        <v>573541</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5448982091570169</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5137080174129292</v>
+        <v>0.5126050690009264</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5763958046975992</v>
+        <v>0.577037614922858</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1222</v>
@@ -1646,19 +1646,19 @@
         <v>1242809</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1197398</v>
+        <v>1196611</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1285527</v>
+        <v>1286780</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5874682868213708</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5660029522737271</v>
+        <v>0.5656306676488861</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6076607933133982</v>
+        <v>0.6082528971442818</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>298623</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>270228</v>
+        <v>270486</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>326863</v>
+        <v>329103</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2662486226614</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2409318459090093</v>
+        <v>0.2411625336162072</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2914273644502938</v>
+        <v>0.293424463260297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>352</v>
@@ -1696,19 +1696,19 @@
         <v>356371</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>326903</v>
+        <v>327367</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>387242</v>
+        <v>388255</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3585437039860434</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3288965405081792</v>
+        <v>0.3293633317714126</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3896026784541152</v>
+        <v>0.3906226362740406</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>650</v>
@@ -1717,19 +1717,19 @@
         <v>654994</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>615512</v>
+        <v>616450</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>697908</v>
+        <v>699841</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.309611547500507</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2909486859962765</v>
+        <v>0.2913922934318508</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3298969444973568</v>
+        <v>0.3308105916372185</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>97762</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80126</v>
+        <v>80544</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>117991</v>
+        <v>120725</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08716341954415319</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07143953617302616</v>
+        <v>0.07181197880878133</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1051997291322135</v>
+        <v>0.1076373136321768</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>75</v>
@@ -1767,19 +1767,19 @@
         <v>77231</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60946</v>
+        <v>61829</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>95556</v>
+        <v>93862</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07770139875048336</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06131711881747309</v>
+        <v>0.06220557454637904</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09613821969359032</v>
+        <v>0.09443463863650561</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>171</v>
@@ -1788,19 +1788,19 @@
         <v>174992</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>151115</v>
+        <v>151542</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>200934</v>
+        <v>199301</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08271788582108555</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07143125723736082</v>
+        <v>0.07163321003682509</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09498028436491754</v>
+        <v>0.09420839455836717</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>18771</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11620</v>
+        <v>12105</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28485</v>
+        <v>29111</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01673597253212691</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01036001869413715</v>
+        <v>0.01079268764624566</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0253969330515159</v>
+        <v>0.02595504055032946</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1838,19 +1838,19 @@
         <v>17764</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10293</v>
+        <v>10742</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27978</v>
+        <v>28070</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01787253124674016</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01035539904187507</v>
+        <v>0.01080732608254645</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02814884708086268</v>
+        <v>0.02824149024364717</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -1859,19 +1859,19 @@
         <v>36535</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25871</v>
+        <v>25446</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50298</v>
+        <v>48904</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01726996101135746</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0122291720289488</v>
+        <v>0.01202820938012207</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02377549844112734</v>
+        <v>0.02311643683351472</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>5225</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1821</v>
+        <v>1686</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14231</v>
+        <v>13407</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004658750048373036</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001623364512076431</v>
+        <v>0.001502903060568053</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01268831778256613</v>
+        <v>0.01195350563236245</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4910</v>
+        <v>4923</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0009841568597161829</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.004940174787767289</v>
+        <v>0.00495338915219619</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1930,19 +1930,19 @@
         <v>6203</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1881</v>
+        <v>2007</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14544</v>
+        <v>14956</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002932318845679286</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0008893011196080451</v>
+        <v>0.0009487048553392947</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006874722243160823</v>
+        <v>0.007069703185954745</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>271494</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>247573</v>
+        <v>251362</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>291109</v>
+        <v>290545</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6070975695991774</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5536062975388343</v>
+        <v>0.5620791047484328</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6509587798571298</v>
+        <v>0.6496992107078575</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>224</v>
@@ -2055,19 +2055,19 @@
         <v>224105</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>207244</v>
+        <v>206797</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>243328</v>
+        <v>241271</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.65689521744385</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6074709316854069</v>
+        <v>0.6061620844941168</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7132416752639137</v>
+        <v>0.7072111424934557</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>493</v>
@@ -2076,19 +2076,19 @@
         <v>495599</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>467404</v>
+        <v>469587</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>520988</v>
+        <v>523118</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6286472687179319</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5928829011764568</v>
+        <v>0.5956518150897675</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6608522942343575</v>
+        <v>0.6635542338631246</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>128812</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>109542</v>
+        <v>111072</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>149605</v>
+        <v>148351</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2880401009235352</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2449501497069606</v>
+        <v>0.2483731976885273</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3345373026418584</v>
+        <v>0.3317331124840538</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>88</v>
@@ -2126,19 +2126,19 @@
         <v>88581</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>73720</v>
+        <v>72976</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>105618</v>
+        <v>105826</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2596494341489126</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2160864687742457</v>
+        <v>0.2139080855577277</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3095870880013825</v>
+        <v>0.3101967549287545</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>211</v>
@@ -2147,19 +2147,19 @@
         <v>217393</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>191813</v>
+        <v>190717</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>243426</v>
+        <v>241629</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.27575417270696</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2433075996943717</v>
+        <v>0.2419169648985607</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.308775477983693</v>
+        <v>0.3064970366970995</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>35502</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25248</v>
+        <v>25062</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49727</v>
+        <v>51477</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07938827645134559</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05645812777901042</v>
+        <v>0.05604236260122173</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1111962526923102</v>
+        <v>0.1151105254291698</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -2197,19 +2197,19 @@
         <v>22157</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14223</v>
+        <v>14325</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33536</v>
+        <v>32715</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06494747939817695</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0416898993136229</v>
+        <v>0.04199068226942627</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09830186595083117</v>
+        <v>0.09589503556903659</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>54</v>
@@ -2218,19 +2218,19 @@
         <v>57660</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>44312</v>
+        <v>44301</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>75122</v>
+        <v>73840</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07313908909009813</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05620844829395253</v>
+        <v>0.05619390588817367</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09528893693530455</v>
+        <v>0.09366350669315014</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>11392</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5970</v>
+        <v>6040</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21008</v>
+        <v>20322</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02547405302594185</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01335073364781966</v>
+        <v>0.0135054586736504</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04697661753115379</v>
+        <v>0.0454437661002756</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2268,19 +2268,19 @@
         <v>6314</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2164</v>
+        <v>2464</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12744</v>
+        <v>13794</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01850786900906042</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00634443197701718</v>
+        <v>0.007222243525924695</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03735519150367636</v>
+        <v>0.04043152219787635</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -2289,19 +2289,19 @@
         <v>17706</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10515</v>
+        <v>10115</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27923</v>
+        <v>27798</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02245946948500998</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01333753375828621</v>
+        <v>0.01283031190668037</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03541871527481776</v>
+        <v>0.03526018460106543</v>
       </c>
     </row>
     <row r="26">
@@ -2440,19 +2440,19 @@
         <v>1981467</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1923905</v>
+        <v>1921217</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2036471</v>
+        <v>2035357</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6133000211639268</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5954833672240168</v>
+        <v>0.5946514873942211</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6303245692784857</v>
+        <v>0.6299798788097233</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1925</v>
@@ -2461,19 +2461,19 @@
         <v>1962723</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1901350</v>
+        <v>1909236</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2011345</v>
+        <v>2016690</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5924317926702303</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5739067513489344</v>
+        <v>0.5762871857182231</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6071080810268042</v>
+        <v>0.6087212694419224</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3862</v>
@@ -2482,19 +2482,19 @@
         <v>3944190</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3862505</v>
+        <v>3864652</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4020339</v>
+        <v>4024912</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6027348956537683</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5902520261139165</v>
+        <v>0.5905801611970289</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6143715406758689</v>
+        <v>0.6150703743531921</v>
       </c>
     </row>
     <row r="29">
@@ -2511,19 +2511,19 @@
         <v>855072</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>803369</v>
+        <v>804804</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>904334</v>
+        <v>907928</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2646602459609878</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2486573289099689</v>
+        <v>0.2491014573806694</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2799078545145336</v>
+        <v>0.2810201473910742</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>872</v>
@@ -2532,19 +2532,19 @@
         <v>893601</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>847730</v>
+        <v>839901</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>947888</v>
+        <v>944088</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2697262124062242</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2558802799438423</v>
+        <v>0.2535171771739708</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2861121576837561</v>
+        <v>0.2849650668926582</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1717</v>
@@ -2553,19 +2553,19 @@
         <v>1748673</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1678810</v>
+        <v>1679278</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1819504</v>
+        <v>1825246</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.267225033448356</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2565487679172128</v>
+        <v>0.2566203279214446</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2780491595038685</v>
+        <v>0.2789266119794576</v>
       </c>
     </row>
     <row r="30">
@@ -2582,19 +2582,19 @@
         <v>296871</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>266103</v>
+        <v>266685</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>332262</v>
+        <v>335492</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09188687455579525</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08236365106569428</v>
+        <v>0.0825437540563099</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.102841197777369</v>
+        <v>0.1038409177888957</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>327</v>
@@ -2603,19 +2603,19 @@
         <v>340982</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>307566</v>
+        <v>309316</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>377732</v>
+        <v>377520</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1029225215231803</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09283621756911418</v>
+        <v>0.09336456789473357</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1140153944609444</v>
+        <v>0.1139511982252306</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>619</v>
@@ -2624,19 +2624,19 @@
         <v>637852</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>586507</v>
+        <v>591577</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>687514</v>
+        <v>687522</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0974739801086907</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08962752136062742</v>
+        <v>0.09040234416336183</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1050630228471332</v>
+        <v>0.1050642935433266</v>
       </c>
     </row>
     <row r="31">
@@ -2653,19 +2653,19 @@
         <v>85842</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>69530</v>
+        <v>69947</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>106142</v>
+        <v>107302</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02656976020161469</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02152065745065958</v>
+        <v>0.02164973543854704</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0328527683507888</v>
+        <v>0.03321190627322194</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>98</v>
@@ -2674,19 +2674,19 @@
         <v>105368</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>85456</v>
+        <v>86901</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>126303</v>
+        <v>125494</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03180449031004628</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02579428072508138</v>
+        <v>0.0262303193640863</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03812358760056909</v>
+        <v>0.03787919462579797</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>182</v>
@@ -2695,19 +2695,19 @@
         <v>191210</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>164781</v>
+        <v>166881</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>219386</v>
+        <v>222025</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02921998902310239</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02518112399634514</v>
+        <v>0.0255020434765632</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03352566293809162</v>
+        <v>0.0339289641059053</v>
       </c>
     </row>
     <row r="32">
@@ -2724,19 +2724,19 @@
         <v>11576</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5871</v>
+        <v>5498</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21076</v>
+        <v>21947</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003583098117675469</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001817278649154808</v>
+        <v>0.001701666522246009</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.006523445028896345</v>
+        <v>0.006793142733348466</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>10</v>
@@ -2745,19 +2745,19 @@
         <v>10320</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5277</v>
+        <v>5320</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18069</v>
+        <v>19071</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003114983090318976</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001592947342765112</v>
+        <v>0.001605881072386891</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.005453966504262823</v>
+        <v>0.005756484160620755</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>20</v>
@@ -2766,19 +2766,19 @@
         <v>21896</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13527</v>
+        <v>13735</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>34192</v>
+        <v>33285</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00334610176608259</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00206710201576036</v>
+        <v>0.002098898748317641</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.005225140181006176</v>
+        <v>0.00508654259176703</v>
       </c>
     </row>
     <row r="33">
@@ -3110,19 +3110,19 @@
         <v>672586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>639212</v>
+        <v>643754</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>703177</v>
+        <v>706339</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6480335353914</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6158779313212731</v>
+        <v>0.620254226458328</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.677507837943753</v>
+        <v>0.680553984276688</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>600</v>
@@ -3131,19 +3131,19 @@
         <v>652935</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>618082</v>
+        <v>619262</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>688387</v>
+        <v>687019</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5846850108879139</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5534747780173455</v>
+        <v>0.5545311706995827</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6164311088307043</v>
+        <v>0.6152061255333796</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1229</v>
@@ -3152,19 +3152,19 @@
         <v>1325522</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1280592</v>
+        <v>1279312</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1371303</v>
+        <v>1368827</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.615200242948702</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.594347582473768</v>
+        <v>0.5937534549678246</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6364481436864026</v>
+        <v>0.6352990061431211</v>
       </c>
     </row>
     <row r="5">
@@ -3181,19 +3181,19 @@
         <v>256285</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>231326</v>
+        <v>229789</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>284581</v>
+        <v>286184</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2469289577759214</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2228813502129284</v>
+        <v>0.2214004927750317</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2741920688634809</v>
+        <v>0.2757368068336136</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>313</v>
@@ -3202,19 +3202,19 @@
         <v>339809</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308816</v>
+        <v>308590</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>370631</v>
+        <v>372242</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.30428949377843</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2765357745309097</v>
+        <v>0.2763339691301915</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3318891441121811</v>
+        <v>0.3333319748206851</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>555</v>
@@ -3223,19 +3223,19 @@
         <v>596094</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>555423</v>
+        <v>553085</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>642847</v>
+        <v>638730</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2766586992024423</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2577827490231379</v>
+        <v>0.2566975571489048</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2983576459618844</v>
+        <v>0.2964472040532305</v>
       </c>
     </row>
     <row r="6">
@@ -3252,19 +3252,19 @@
         <v>79513</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63204</v>
+        <v>63404</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>98023</v>
+        <v>100355</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07661078573840333</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06089657205656677</v>
+        <v>0.06108910749266988</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09444495088494333</v>
+        <v>0.09669131880449193</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>86</v>
@@ -3273,19 +3273,19 @@
         <v>91562</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>73956</v>
+        <v>75063</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>110210</v>
+        <v>112111</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08199160986667341</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0662251361506668</v>
+        <v>0.06721669239899204</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09868958658371318</v>
+        <v>0.1003925999598142</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>160</v>
@@ -3294,19 +3294,19 @@
         <v>171076</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>148444</v>
+        <v>146690</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>197931</v>
+        <v>199024</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07939964583531836</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0688957630410371</v>
+        <v>0.06808176351953839</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09186359759927934</v>
+        <v>0.0923706795815145</v>
       </c>
     </row>
     <row r="7">
@@ -3323,19 +3323,19 @@
         <v>23727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14270</v>
+        <v>14314</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34511</v>
+        <v>34847</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02286129555754748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01374925595815041</v>
+        <v>0.01379164481755187</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03325138740696662</v>
+        <v>0.03357459849397772</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -3344,19 +3344,19 @@
         <v>24310</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14900</v>
+        <v>15369</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36300</v>
+        <v>36471</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02176936018383032</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01334229581030148</v>
+        <v>0.01376224298634468</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03250525520187104</v>
+        <v>0.0326589510613402</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -3365,19 +3365,19 @@
         <v>48038</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34311</v>
+        <v>36376</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65113</v>
+        <v>65231</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02229534972479475</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01592444073712401</v>
+        <v>0.01688289385516741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03022036386058556</v>
+        <v>0.0302748864261516</v>
       </c>
     </row>
     <row r="8">
@@ -3394,19 +3394,19 @@
         <v>5776</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1891</v>
+        <v>1782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14819</v>
+        <v>13823</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005565425536727722</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001822435729808076</v>
+        <v>0.001717202479358387</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01427786508362066</v>
+        <v>0.01331814378403621</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -3415,19 +3415,19 @@
         <v>8113</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3967</v>
+        <v>3962</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15950</v>
+        <v>15181</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0072645252831524</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003552548078065361</v>
+        <v>0.003547982694395586</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0142823649598321</v>
+        <v>0.01359406149706213</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -3436,19 +3436,19 @@
         <v>13889</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7533</v>
+        <v>7963</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22870</v>
+        <v>23914</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00644606228874245</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003496077311652676</v>
+        <v>0.003695749269158335</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01061429822913692</v>
+        <v>0.01109902093522675</v>
       </c>
     </row>
     <row r="9">
@@ -3540,19 +3540,19 @@
         <v>643105</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>611378</v>
+        <v>613372</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>676188</v>
+        <v>678867</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6595027963459628</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6269672651895072</v>
+        <v>0.6290118250657302</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6934291220685083</v>
+        <v>0.696176358489683</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>645</v>
@@ -3561,19 +3561,19 @@
         <v>690875</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>657522</v>
+        <v>657056</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>720273</v>
+        <v>722024</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.633741601577454</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6031472594277796</v>
+        <v>0.6027199948367641</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.660708957640737</v>
+        <v>0.662315313391341</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1259</v>
@@ -3582,19 +3582,19 @@
         <v>1333980</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1287351</v>
+        <v>1292221</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1374702</v>
+        <v>1376447</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6459048819660843</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6233274010168613</v>
+        <v>0.6256856348328669</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6656224815145025</v>
+        <v>0.6664675432572826</v>
       </c>
     </row>
     <row r="11">
@@ -3611,19 +3611,19 @@
         <v>249958</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>222190</v>
+        <v>220065</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>281989</v>
+        <v>280379</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2563314943630819</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2278549698621023</v>
+        <v>0.2256761078701804</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2891788817768303</v>
+        <v>0.2875280294460825</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>274</v>
@@ -3632,19 +3632,19 @@
         <v>292853</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>264332</v>
+        <v>264322</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>325423</v>
+        <v>324077</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2686351777686392</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2424724754064215</v>
+        <v>0.242463162954857</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2985118653676512</v>
+        <v>0.2972768445506924</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>507</v>
@@ -3653,19 +3653,19 @@
         <v>542811</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>503017</v>
+        <v>499747</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>586270</v>
+        <v>579036</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2628259304717059</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2435576317620515</v>
+        <v>0.2419744105768643</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2838684170894989</v>
+        <v>0.2803659106575347</v>
       </c>
     </row>
     <row r="12">
@@ -3682,19 +3682,19 @@
         <v>65390</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>51032</v>
+        <v>49926</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>83223</v>
+        <v>84954</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06705749468927746</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05233306119963602</v>
+        <v>0.05119890696734902</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08534470887731413</v>
+        <v>0.08711996430081899</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>75</v>
@@ -3703,19 +3703,19 @@
         <v>83066</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>67142</v>
+        <v>67346</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>105118</v>
+        <v>107124</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07619626955929269</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06158929824593104</v>
+        <v>0.06177654354812866</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0964251043813225</v>
+        <v>0.09826535636654385</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>135</v>
@@ -3724,19 +3724,19 @@
         <v>148456</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>124706</v>
+        <v>126789</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>174365</v>
+        <v>174976</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07188135007859975</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06038168983361504</v>
+        <v>0.06139030982474495</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08442636890866767</v>
+        <v>0.08472216217201756</v>
       </c>
     </row>
     <row r="13">
@@ -3753,19 +3753,19 @@
         <v>10457</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5188</v>
+        <v>4681</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18149</v>
+        <v>17700</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01072358393477769</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005320760654172417</v>
+        <v>0.00480036536376886</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01861128182559596</v>
+        <v>0.01815181934838422</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -3774,19 +3774,19 @@
         <v>19239</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11813</v>
+        <v>12401</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30371</v>
+        <v>29717</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01764838240726775</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01083618071482277</v>
+        <v>0.0113757063847683</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02785962759915728</v>
+        <v>0.02725920560965608</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -3795,19 +3795,19 @@
         <v>29696</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20882</v>
+        <v>19650</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42115</v>
+        <v>42486</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01437880325100057</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01011090574970903</v>
+        <v>0.009514342533027759</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02039196081742866</v>
+        <v>0.0205713400978657</v>
       </c>
     </row>
     <row r="14">
@@ -3824,19 +3824,19 @@
         <v>6226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2203</v>
+        <v>2047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14813</v>
+        <v>14102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006384630666900104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00225927324656464</v>
+        <v>0.002098782665104115</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01519089285333085</v>
+        <v>0.01446121503274326</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3845,19 +3845,19 @@
         <v>4119</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1054</v>
+        <v>1095</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9555</v>
+        <v>10396</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003778568687346386</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0009665849334081635</v>
+        <v>0.001003991149132236</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.008765166237958963</v>
+        <v>0.009536583271635587</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -3866,19 +3866,19 @@
         <v>10345</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4721</v>
+        <v>5081</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20358</v>
+        <v>19471</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005009034232609439</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002285965909764354</v>
+        <v>0.002460428218321702</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.00985713008702044</v>
+        <v>0.00942790939885018</v>
       </c>
     </row>
     <row r="15">
@@ -3970,19 +3970,19 @@
         <v>576599</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>546585</v>
+        <v>547326</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>604924</v>
+        <v>604462</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6514394086777807</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6175302951670241</v>
+        <v>0.618366777798014</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6834406820546751</v>
+        <v>0.6829190316173633</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>535</v>
@@ -3991,19 +3991,19 @@
         <v>568640</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>539957</v>
+        <v>538921</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>597726</v>
+        <v>596419</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6501455019817657</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6173507226452085</v>
+        <v>0.6161664904980697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6834000066255876</v>
+        <v>0.6819066808179018</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1076</v>
@@ -4012,19 +4012,19 @@
         <v>1145239</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1102904</v>
+        <v>1105996</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1183406</v>
+        <v>1187141</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6507963082491732</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.62673911273875</v>
+        <v>0.6284961802751382</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6724854685485975</v>
+        <v>0.6746077162221341</v>
       </c>
     </row>
     <row r="17">
@@ -4041,19 +4041,19 @@
         <v>219677</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193424</v>
+        <v>195643</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>246814</v>
+        <v>244833</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2481905144947643</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2185300002493629</v>
+        <v>0.2210368667010447</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2788500486457661</v>
+        <v>0.2766116297869945</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>214</v>
@@ -4062,19 +4062,19 @@
         <v>229353</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>205008</v>
+        <v>203804</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>257198</v>
+        <v>257233</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2622269023413471</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2343926598451047</v>
+        <v>0.2330164602044199</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2940637646016103</v>
+        <v>0.2941038203248983</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>422</v>
@@ -4083,19 +4083,19 @@
         <v>449030</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>416254</v>
+        <v>411859</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>488897</v>
+        <v>484625</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2551669116863393</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2365415092335647</v>
+        <v>0.2340442687716643</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2778218142970636</v>
+        <v>0.275394106720299</v>
       </c>
     </row>
     <row r="18">
@@ -4112,19 +4112,19 @@
         <v>76903</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60694</v>
+        <v>61100</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>95285</v>
+        <v>95576</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08688526930541109</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06857171232649055</v>
+        <v>0.06903048615405873</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1076526839966453</v>
+        <v>0.1079817295890858</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -4133,19 +4133,19 @@
         <v>68758</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>52840</v>
+        <v>53269</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>85246</v>
+        <v>86243</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07861347309824404</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06041331658920671</v>
+        <v>0.06090474137770783</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.097464924781486</v>
+        <v>0.0986045053354519</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>133</v>
@@ -4154,19 +4154,19 @@
         <v>145662</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>123399</v>
+        <v>122714</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>172196</v>
+        <v>171097</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08277400247097332</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07012317454285825</v>
+        <v>0.06973389445598605</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09785255445317942</v>
+        <v>0.09722799478029696</v>
       </c>
     </row>
     <row r="19">
@@ -4183,19 +4183,19 @@
         <v>8889</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3969</v>
+        <v>4032</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17178</v>
+        <v>17741</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01004318343733126</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004484255045156072</v>
+        <v>0.004555117857495068</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01940757838557888</v>
+        <v>0.02004355376394329</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -4204,19 +4204,19 @@
         <v>5946</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2062</v>
+        <v>2029</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12271</v>
+        <v>12726</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006798143018416864</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002357668782652021</v>
+        <v>0.002319425560506617</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01403012185105553</v>
+        <v>0.01454972956329393</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -4225,19 +4225,19 @@
         <v>14835</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8888</v>
+        <v>7845</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25196</v>
+        <v>23786</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008430326118731778</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005050499566759573</v>
+        <v>0.004457989593980441</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01431821587592202</v>
+        <v>0.01351684921278421</v>
       </c>
     </row>
     <row r="20">
@@ -4254,19 +4254,19 @@
         <v>3046</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8163</v>
+        <v>9108</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003441624084712571</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00108043176641502</v>
+        <v>0.001090922285297118</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.00922199448198069</v>
+        <v>0.01029066850207816</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5993</v>
+        <v>6798</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002215979560226273</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.006851737372602913</v>
+        <v>0.007772356603426467</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -4296,19 +4296,19 @@
         <v>4984</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1948</v>
+        <v>1932</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11803</v>
+        <v>11790</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00283245147478236</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001107147107119769</v>
+        <v>0.001097910373740414</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006707349869166755</v>
+        <v>0.006699903993249688</v>
       </c>
     </row>
     <row r="21">
@@ -4400,19 +4400,19 @@
         <v>351023</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>328905</v>
+        <v>327100</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>372963</v>
+        <v>370426</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7024398276595407</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6581792107973028</v>
+        <v>0.6545684308612948</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7463450308308812</v>
+        <v>0.741267993367176</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>299</v>
@@ -4421,19 +4421,19 @@
         <v>326842</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>307151</v>
+        <v>304337</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>345398</v>
+        <v>345287</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7235881506677718</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6799953567965811</v>
+        <v>0.6737651706241478</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7646693683118213</v>
+        <v>0.7644223762959719</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>624</v>
@@ -4442,19 +4442,19 @@
         <v>677864</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>645022</v>
+        <v>647198</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>706739</v>
+        <v>707321</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7124802520009715</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6779608546611353</v>
+        <v>0.6802479742008422</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7428288806197739</v>
+        <v>0.7434409239017605</v>
       </c>
     </row>
     <row r="23">
@@ -4471,19 +4471,19 @@
         <v>107314</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>87845</v>
+        <v>89256</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>128944</v>
+        <v>128106</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2147489514099405</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1757886758847866</v>
+        <v>0.1786115934612036</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2580340023427329</v>
+        <v>0.2563559625812652</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>89</v>
@@ -4492,19 +4492,19 @@
         <v>99194</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>82211</v>
+        <v>82595</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>118476</v>
+        <v>119016</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2196044602316348</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1820045842305561</v>
+        <v>0.182855172297724</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2622922003089791</v>
+        <v>0.2634874735277105</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>184</v>
@@ -4513,19 +4513,19 @@
         <v>206509</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>180048</v>
+        <v>179560</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>238080</v>
+        <v>234625</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2170541634565126</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1892425662574307</v>
+        <v>0.1887290130360941</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2502375056955338</v>
+        <v>0.2466064290087256</v>
       </c>
     </row>
     <row r="24">
@@ -4542,19 +4542,19 @@
         <v>38111</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26827</v>
+        <v>27275</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>51378</v>
+        <v>52384</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07626577307463295</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05368376469118479</v>
+        <v>0.05457990268427639</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1028133018201784</v>
+        <v>0.1048265917005157</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -4563,19 +4563,19 @@
         <v>18616</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11040</v>
+        <v>11832</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29211</v>
+        <v>29565</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04121414144312082</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02444127170856049</v>
+        <v>0.02619445930438333</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06466891539721574</v>
+        <v>0.06545332904804524</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>52</v>
@@ -4584,19 +4584,19 @@
         <v>56728</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>41271</v>
+        <v>44226</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>72282</v>
+        <v>72319</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05962458335462887</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04337804943876211</v>
+        <v>0.04648422231971333</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07597301044041072</v>
+        <v>0.07601169696603217</v>
       </c>
     </row>
     <row r="25">
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7910</v>
+        <v>8030</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004538448064579218</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01582845814654195</v>
+        <v>0.01606974566285882</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4634,19 +4634,19 @@
         <v>3811</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10318</v>
+        <v>11845</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008436629677244666</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002098983266871213</v>
+        <v>0.002122993492785111</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02284378326757172</v>
+        <v>0.0262243991974645</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -4655,19 +4655,19 @@
         <v>6079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2223</v>
+        <v>1980</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15455</v>
+        <v>13460</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006389157340009278</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002336470622362503</v>
+        <v>0.002080886677860166</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01624455403992775</v>
+        <v>0.01414718904078308</v>
       </c>
     </row>
     <row r="26">
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5028</v>
+        <v>4998</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002006999791306544</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0100614718322566</v>
+        <v>0.01000123017893512</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -4705,19 +4705,19 @@
         <v>3233</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9176</v>
+        <v>8547</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007156617980227905</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002155559805396051</v>
+        <v>0.002150550011973532</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02031427267414707</v>
+        <v>0.01892212295251934</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -4726,19 +4726,19 @@
         <v>4236</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11798</v>
+        <v>10514</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004451843847877707</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001053818061088077</v>
+        <v>0.001059146599072426</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01240054321826633</v>
+        <v>0.01105100689951096</v>
       </c>
     </row>
     <row r="27">
@@ -4830,19 +4830,19 @@
         <v>2243312</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2185488</v>
+        <v>2193637</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2296354</v>
+        <v>2304786</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6602137238815357</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6431957641332182</v>
+        <v>0.6455939463681909</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6758238598116565</v>
+        <v>0.6783054211134114</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2079</v>
@@ -4851,19 +4851,19 @@
         <v>2239292</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2181233</v>
+        <v>2176551</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2299388</v>
+        <v>2299638</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6337834308685862</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6173510733098089</v>
+        <v>0.6160259932210344</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6507924362767241</v>
+        <v>0.6508630778783329</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4188</v>
@@ -4872,19 +4872,19 @@
         <v>4482604</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4399857</v>
+        <v>4395707</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4561520</v>
+        <v>4565081</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6467405041697787</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6348018352540362</v>
+        <v>0.6342030844811298</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6581263302441487</v>
+        <v>0.6586400407693901</v>
       </c>
     </row>
     <row r="29">
@@ -4901,19 +4901,19 @@
         <v>833234</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>786406</v>
+        <v>782661</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>887365</v>
+        <v>883679</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2452232974853369</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2314416957586026</v>
+        <v>0.2303396591987261</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2611542301102601</v>
+        <v>0.2600693120658052</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>890</v>
@@ -4922,19 +4922,19 @@
         <v>961210</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>907425</v>
+        <v>910333</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1015202</v>
+        <v>1014462</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2720497357813512</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2568270143019361</v>
+        <v>0.2576501715540343</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2873310362551804</v>
+        <v>0.2871216104132716</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1668</v>
@@ -4943,19 +4943,19 @@
         <v>1794444</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1720442</v>
+        <v>1720059</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1864557</v>
+        <v>1873548</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2588984579184432</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2482217314754267</v>
+        <v>0.2481664132548311</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2690142901429269</v>
+        <v>0.2703115324564826</v>
       </c>
     </row>
     <row r="30">
@@ -4972,19 +4972,19 @@
         <v>259919</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>230605</v>
+        <v>232308</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>294462</v>
+        <v>293035</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07649480975680577</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06786772603274499</v>
+        <v>0.06836890949383161</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08666113498208299</v>
+        <v>0.0862409512085764</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>241</v>
@@ -4993,19 +4993,19 @@
         <v>262002</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>231246</v>
+        <v>232449</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>296098</v>
+        <v>300616</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07415413712184248</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06544923285889682</v>
+        <v>0.06578970670446722</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08380418157739261</v>
+        <v>0.0850830079854254</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>480</v>
@@ -5014,19 +5014,19 @@
         <v>521921</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>480630</v>
+        <v>477534</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>575016</v>
+        <v>568275</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07530161841879425</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06934430458560988</v>
+        <v>0.06889762247192981</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08296210479854471</v>
+        <v>0.08198944071305378</v>
       </c>
     </row>
     <row r="31">
@@ -5043,19 +5043,19 @@
         <v>45342</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>32610</v>
+        <v>32139</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>60094</v>
+        <v>59344</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01334421042334392</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009597241018808812</v>
+        <v>0.009458554050690633</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01768574868943196</v>
+        <v>0.01746501344288609</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>48</v>
@@ -5064,19 +5064,19 @@
         <v>53307</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>39730</v>
+        <v>38634</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>71787</v>
+        <v>69877</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01508728783054095</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01124484848715686</v>
+        <v>0.01093463194433605</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02031779417265916</v>
+        <v>0.01977719481875963</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>90</v>
@@ -5085,19 +5085,19 @@
         <v>98648</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>80184</v>
+        <v>80568</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>120878</v>
+        <v>120448</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01423276905075902</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01156872518714984</v>
+        <v>0.01162424612553568</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01743995611886053</v>
+        <v>0.01737798526430353</v>
       </c>
     </row>
     <row r="32">
@@ -5114,19 +5114,19 @@
         <v>16051</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8926</v>
+        <v>9086</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26795</v>
+        <v>27338</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.00472395845297776</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002626813547353966</v>
+        <v>0.002674164627368989</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007885735678239518</v>
+        <v>0.0080455962891671</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -5135,19 +5135,19 @@
         <v>17403</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10380</v>
+        <v>10231</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27292</v>
+        <v>28023</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004925408397679181</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002937720495204038</v>
+        <v>0.002895754736283947</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.007724444543239954</v>
+        <v>0.007931348731157984</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>31</v>
@@ -5156,19 +5156,19 @@
         <v>33454</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>22844</v>
+        <v>23648</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>47465</v>
+        <v>47344</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004826650442224862</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003295920304652271</v>
+        <v>0.003411842399736383</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006848163341900739</v>
+        <v>0.006830755272718246</v>
       </c>
     </row>
     <row r="33">
@@ -5500,19 +5500,19 @@
         <v>553712</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>518887</v>
+        <v>518876</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>588109</v>
+        <v>587521</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4918300895818078</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4608976103927274</v>
+        <v>0.4608874282386634</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.522383326724992</v>
+        <v>0.5218605649086203</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>598</v>
@@ -5521,19 +5521,19 @@
         <v>630823</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>598865</v>
+        <v>595224</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>668322</v>
+        <v>669861</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5016141551466098</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4762021793415365</v>
+        <v>0.4733069574260155</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5314323644581131</v>
+        <v>0.5326561170363635</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1118</v>
@@ -5542,19 +5542,19 @@
         <v>1184535</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1132669</v>
+        <v>1137795</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1232781</v>
+        <v>1239364</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4969925803571182</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4752312418240792</v>
+        <v>0.4773823337468204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5172350229036545</v>
+        <v>0.5199970739148201</v>
       </c>
     </row>
     <row r="5">
@@ -5571,19 +5571,19 @@
         <v>371617</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>340976</v>
+        <v>337958</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>404210</v>
+        <v>405245</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3300859966342944</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.302869409227046</v>
+        <v>0.3001884936717948</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3590368287818304</v>
+        <v>0.3599559269330258</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>384</v>
@@ -5592,19 +5592,19 @@
         <v>404519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>371773</v>
+        <v>367503</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>441100</v>
+        <v>439558</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3216630788349583</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2956239647086724</v>
+        <v>0.292229152041359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3507510914867391</v>
+        <v>0.3495255638452631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>739</v>
@@ -5613,19 +5613,19 @@
         <v>776136</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>733427</v>
+        <v>732422</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>823365</v>
+        <v>821853</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3256417055415711</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3077222814373158</v>
+        <v>0.3073008378221591</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3454573008633787</v>
+        <v>0.3448229256967109</v>
       </c>
     </row>
     <row r="6">
@@ -5642,19 +5642,19 @@
         <v>143789</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>122972</v>
+        <v>120695</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>167659</v>
+        <v>168289</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1277194774624223</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1092293090725251</v>
+        <v>0.1072061078275443</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1489216068220071</v>
+        <v>0.1494818355022709</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>161</v>
@@ -5663,19 +5663,19 @@
         <v>173995</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>147994</v>
+        <v>149975</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>199934</v>
+        <v>201442</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1383562337222287</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1176807664990989</v>
+        <v>0.1192561973323611</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1589823914582298</v>
+        <v>0.1601815549344051</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>296</v>
@@ -5684,19 +5684,19 @@
         <v>317784</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>285849</v>
+        <v>283066</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>351120</v>
+        <v>351947</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.133331884258634</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1199330801648762</v>
+        <v>0.1187655638614346</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1473187376837146</v>
+        <v>0.147665449555913</v>
       </c>
     </row>
     <row r="7">
@@ -5713,19 +5713,19 @@
         <v>40321</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28925</v>
+        <v>28572</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54181</v>
+        <v>55168</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03581444861326979</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02569254506816676</v>
+        <v>0.02537881646682905</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04812595350636529</v>
+        <v>0.04900268387100652</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -5734,19 +5734,19 @@
         <v>35044</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24602</v>
+        <v>24686</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49480</v>
+        <v>49003</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02786636563911015</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01956316742820735</v>
+        <v>0.01962971263406095</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03934522656409925</v>
+        <v>0.03896600577414099</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -5755,19 +5755,19 @@
         <v>75365</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60506</v>
+        <v>58152</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95904</v>
+        <v>94706</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03162070064993724</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02538633645792349</v>
+        <v>0.02439867103874886</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04023802503967609</v>
+        <v>0.03973555588670877</v>
       </c>
     </row>
     <row r="8">
@@ -5784,19 +5784,19 @@
         <v>16381</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10166</v>
+        <v>10225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27036</v>
+        <v>25867</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0145499877082057</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009029647095257663</v>
+        <v>0.009082302872724416</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02401409321302212</v>
+        <v>0.02297645938308899</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -5805,19 +5805,19 @@
         <v>13205</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6492</v>
+        <v>6552</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22922</v>
+        <v>22312</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01050016665709311</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005162231249805271</v>
+        <v>0.005210048067608211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01822719654610256</v>
+        <v>0.017741725999769</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -5826,19 +5826,19 @@
         <v>29586</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19493</v>
+        <v>19122</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42323</v>
+        <v>42532</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01241312919273953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008178440797994341</v>
+        <v>0.008023086916996018</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01775737196203401</v>
+        <v>0.01784499247698076</v>
       </c>
     </row>
     <row r="9">
@@ -5930,19 +5930,19 @@
         <v>479111</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>449596</v>
+        <v>448489</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>508665</v>
+        <v>510134</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5279880520064988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4954617823830957</v>
+        <v>0.4942423560223151</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5605569068282116</v>
+        <v>0.5621758069457065</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>483</v>
@@ -5951,19 +5951,19 @@
         <v>507449</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>472247</v>
+        <v>476032</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>539688</v>
+        <v>538408</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5055980774420169</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4705244078012241</v>
+        <v>0.4742956358670241</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5377198040949387</v>
+        <v>0.5364443935735023</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>943</v>
@@ -5972,19 +5972,19 @@
         <v>986560</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>943507</v>
+        <v>944761</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1027261</v>
+        <v>1033944</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5162293461415365</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4937014192215495</v>
+        <v>0.4943574056122114</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5375265477166102</v>
+        <v>0.5410237558734997</v>
       </c>
     </row>
     <row r="11">
@@ -6001,19 +6001,19 @@
         <v>290993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>261892</v>
+        <v>263136</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>318541</v>
+        <v>317421</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3206784566928063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2886093243909035</v>
+        <v>0.2899804812267788</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3510374370837652</v>
+        <v>0.3498025403330833</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>327</v>
@@ -6022,19 +6022,19 @@
         <v>347523</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318252</v>
+        <v>318024</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>383238</v>
+        <v>378064</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3462555582773054</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3170919126450777</v>
+        <v>0.3168642448021072</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3818403470093555</v>
+        <v>0.3766858042461901</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>614</v>
@@ -6043,19 +6043,19 @@
         <v>638515</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>599988</v>
+        <v>595470</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>680954</v>
+        <v>678071</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3341109692463258</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3139508133266617</v>
+        <v>0.311586729838897</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3563174460776641</v>
+        <v>0.3548086260570918</v>
       </c>
     </row>
     <row r="12">
@@ -6072,19 +6072,19 @@
         <v>126635</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>108175</v>
+        <v>107916</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>151553</v>
+        <v>144916</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1395533576775616</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1192105327240535</v>
+        <v>0.1189250437388042</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1670142165098445</v>
+        <v>0.159699483440828</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>120</v>
@@ -6093,19 +6093,19 @@
         <v>127685</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>106735</v>
+        <v>106039</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>150978</v>
+        <v>148894</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.127219605976001</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1063460316608954</v>
+        <v>0.1056527156367788</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1504273360644864</v>
+        <v>0.1483505907127544</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>243</v>
@@ -6114,19 +6114,19 @@
         <v>254320</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>228786</v>
+        <v>227135</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>285099</v>
+        <v>283753</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1330759515486508</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1197149864067714</v>
+        <v>0.1188513261856265</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1491815607564768</v>
+        <v>0.1484770012641813</v>
       </c>
     </row>
     <row r="13">
@@ -6143,19 +6143,19 @@
         <v>9898</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4758</v>
+        <v>4235</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17703</v>
+        <v>18130</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01090791265093204</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005243124371429926</v>
+        <v>0.004666498548631774</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01950886618275694</v>
+        <v>0.0199791970400721</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -6164,19 +6164,19 @@
         <v>20010</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12283</v>
+        <v>11855</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31335</v>
+        <v>30525</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01993667566155073</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01223852975115199</v>
+        <v>0.01181128070160269</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03122118394314541</v>
+        <v>0.03041346198042571</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -6185,19 +6185,19 @@
         <v>29908</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19414</v>
+        <v>20103</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43060</v>
+        <v>43024</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0156496138199335</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01015843374253727</v>
+        <v>0.01051901594181209</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02253167181913362</v>
+        <v>0.02251260587366261</v>
       </c>
     </row>
     <row r="14">
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4765</v>
+        <v>3982</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0008722209722014003</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.005250830895969274</v>
+        <v>0.004387726036096169</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4980</v>
+        <v>5536</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.000990082643125978</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.004962305630014816</v>
+        <v>0.005515423404299829</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6359</v>
+        <v>6480</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0009341192435533294</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003327604381163671</v>
+        <v>0.003390900423008824</v>
       </c>
     </row>
     <row r="15">
@@ -6360,19 +6360,19 @@
         <v>454746</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>424782</v>
+        <v>424147</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>482567</v>
+        <v>481451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5533295144355471</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5168699049350657</v>
+        <v>0.5160963730678504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5871811494190272</v>
+        <v>0.585823636845261</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>375</v>
@@ -6381,19 +6381,19 @@
         <v>391061</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>362462</v>
+        <v>361157</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>418515</v>
+        <v>418133</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5099588629121971</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4726635186134668</v>
+        <v>0.4709629640549557</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5457595453803284</v>
+        <v>0.5452616457354323</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>808</v>
@@ -6402,19 +6402,19 @@
         <v>845808</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>802955</v>
+        <v>805621</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>885883</v>
+        <v>885722</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5323947524807429</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5054212415166477</v>
+        <v>0.5070990092015489</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5576200705253928</v>
+        <v>0.5575186841283513</v>
       </c>
     </row>
     <row r="17">
@@ -6431,19 +6431,19 @@
         <v>267931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>239122</v>
+        <v>241627</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>295391</v>
+        <v>296992</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.326015631043549</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2909601517920058</v>
+        <v>0.2940082461595692</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3594282580025469</v>
+        <v>0.3613757594412943</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>247</v>
@@ -6452,19 +6452,19 @@
         <v>262607</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>235387</v>
+        <v>238077</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>289859</v>
+        <v>290213</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3424487980161336</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3069530567348624</v>
+        <v>0.310461607745104</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3779873630570437</v>
+        <v>0.3784490315137879</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>502</v>
@@ -6473,19 +6473,19 @@
         <v>530538</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>492163</v>
+        <v>493891</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>568488</v>
+        <v>570616</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.333947825434251</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3097926051421243</v>
+        <v>0.3108806005557463</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3578352717272413</v>
+        <v>0.3591747502062604</v>
       </c>
     </row>
     <row r="18">
@@ -6502,19 +6502,19 @@
         <v>85145</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>67450</v>
+        <v>69941</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>104517</v>
+        <v>106805</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1036029763825969</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08207274572924227</v>
+        <v>0.08510393857392742</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1271748822373065</v>
+        <v>0.1299592557948067</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>97</v>
@@ -6523,19 +6523,19 @@
         <v>106959</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>89290</v>
+        <v>86266</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>129187</v>
+        <v>128855</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1394788611882309</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.116437596801796</v>
+        <v>0.1124938343627061</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.16846445992081</v>
+        <v>0.1680313700314849</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>179</v>
@@ -6544,19 +6544,19 @@
         <v>192104</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>167833</v>
+        <v>167486</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>221236</v>
+        <v>220755</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.120920057909942</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1056427154058673</v>
+        <v>0.1054245516398151</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1392571514086711</v>
+        <v>0.1389545391619446</v>
       </c>
     </row>
     <row r="19">
@@ -6573,19 +6573,19 @@
         <v>12024</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6523</v>
+        <v>6095</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19496</v>
+        <v>20002</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01463077311236997</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007936546544146923</v>
+        <v>0.007416576391506479</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02372272662586247</v>
+        <v>0.02433868497552917</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -6594,19 +6594,19 @@
         <v>4403</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10842</v>
+        <v>11448</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005741066133383286</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00145770986150932</v>
+        <v>0.001462218571120534</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01413793361785703</v>
+        <v>0.01492820569545858</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -6615,19 +6615,19 @@
         <v>16427</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9447</v>
+        <v>9490</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25579</v>
+        <v>27071</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01033976311099028</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005946523638881945</v>
+        <v>0.00597359582338026</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01610075357130773</v>
+        <v>0.01704006711416197</v>
       </c>
     </row>
     <row r="20">
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6203</v>
+        <v>7256</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002421105025936992</v>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007547327505928444</v>
+        <v>0.008828875409717938</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8387</v>
+        <v>8094</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002372411750055073</v>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01093664059124248</v>
+        <v>0.01055433108980284</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -6686,19 +6686,19 @@
         <v>3809</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10589</v>
+        <v>11237</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002397601064073778</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0005451001735511981</v>
+        <v>0.0005442470499782307</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006665255848717648</v>
+        <v>0.007073418088129709</v>
       </c>
     </row>
     <row r="21">
@@ -6790,19 +6790,19 @@
         <v>350053</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>328507</v>
+        <v>329654</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>370834</v>
+        <v>371569</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6908472484840045</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6483257806441806</v>
+        <v>0.6505896650425207</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.731859055810576</v>
+        <v>0.7333097991912685</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>296</v>
@@ -6811,19 +6811,19 @@
         <v>317153</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>293633</v>
+        <v>294363</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>338526</v>
+        <v>338281</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6502816270398007</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6020555863594567</v>
+        <v>0.6035523103606637</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6941038326735005</v>
+        <v>0.6936008346807623</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>620</v>
@@ -6832,19 +6832,19 @@
         <v>667206</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>635974</v>
+        <v>635167</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>696796</v>
+        <v>698082</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.670951650379519</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6395438650561844</v>
+        <v>0.6387323783977653</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7007069442536614</v>
+        <v>0.7020004446632323</v>
       </c>
     </row>
     <row r="23">
@@ -6861,19 +6861,19 @@
         <v>113038</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>95481</v>
+        <v>93429</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>133066</v>
+        <v>134052</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2230857643322442</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1884365464452002</v>
+        <v>0.1843877891842175</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2626132669637873</v>
+        <v>0.2645575996976145</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>116</v>
@@ -6882,19 +6882,19 @@
         <v>125539</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>107721</v>
+        <v>106801</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>146047</v>
+        <v>146400</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2574021066889619</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2208671129950677</v>
+        <v>0.2189814418074933</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2994503923639749</v>
+        <v>0.3001745190316462</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>222</v>
@@ -6903,19 +6903,19 @@
         <v>238577</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>213319</v>
+        <v>212056</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>267975</v>
+        <v>267047</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2399163743817974</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2145163474258557</v>
+        <v>0.2132464323610331</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2694794389229003</v>
+        <v>0.2685464777943687</v>
       </c>
     </row>
     <row r="24">
@@ -6932,19 +6932,19 @@
         <v>35277</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24772</v>
+        <v>24452</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>48781</v>
+        <v>47220</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06962072381125224</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04888936177642312</v>
+        <v>0.04825768682096605</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09627155396023278</v>
+        <v>0.09319180749955711</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -6953,19 +6953,19 @@
         <v>37420</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26339</v>
+        <v>25892</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>51678</v>
+        <v>49394</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07672459207758597</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05400421392204063</v>
+        <v>0.05308766566515061</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1059596450913185</v>
+        <v>0.1012755083981686</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>68</v>
@@ -6974,19 +6974,19 @@
         <v>72697</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>55243</v>
+        <v>56043</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>90899</v>
+        <v>90713</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07310484911199699</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05555331474696153</v>
+        <v>0.05635755464624405</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09140896041942881</v>
+        <v>0.09122179748032475</v>
       </c>
     </row>
     <row r="25">
@@ -7003,19 +7003,19 @@
         <v>7506</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3307</v>
+        <v>3206</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14233</v>
+        <v>14880</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01481326554293855</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006526939161291165</v>
+        <v>0.006327525691588696</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02808903043211575</v>
+        <v>0.02936565452603273</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -7024,19 +7024,19 @@
         <v>6399</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2397</v>
+        <v>2318</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14113</v>
+        <v>13132</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01312071748310051</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004914593558149245</v>
+        <v>0.004753614938841034</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02893740630526775</v>
+        <v>0.02692502533859443</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -7045,19 +7045,19 @@
         <v>13905</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7600</v>
+        <v>7575</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22423</v>
+        <v>23875</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01398314745840774</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007642964224547001</v>
+        <v>0.007617941950664132</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02254914343228257</v>
+        <v>0.0240087084536705</v>
       </c>
     </row>
     <row r="26">
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4951</v>
+        <v>4190</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001632997829560566</v>
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.009771366273244528</v>
+        <v>0.008268870400146202</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -7098,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5994</v>
+        <v>6095</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002470956710550791</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01228918715252845</v>
+        <v>0.01249643505935652</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7107</v>
+        <v>6453</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002043978668278817</v>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007147280044812431</v>
+        <v>0.006489359861381031</v>
       </c>
     </row>
     <row r="27">
@@ -7220,19 +7220,19 @@
         <v>1837621</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1782861</v>
+        <v>1776613</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1893457</v>
+        <v>1896032</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5466210553642047</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5303318606360876</v>
+        <v>0.5284732947507759</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5632299684981528</v>
+        <v>0.5639958143699664</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1752</v>
@@ -7241,19 +7241,19 @@
         <v>1846486</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1788095</v>
+        <v>1782527</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1914737</v>
+        <v>1903335</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5251948428749664</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5085866630344968</v>
+        <v>0.5070029424543059</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5446074375856109</v>
+        <v>0.5413644091252359</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3489</v>
@@ -7262,19 +7262,19 @@
         <v>3684108</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3607743</v>
+        <v>3600196</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3771073</v>
+        <v>3765192</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5356680217964954</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5245645894648203</v>
+        <v>0.5234673498477004</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5483127945401826</v>
+        <v>0.5474576373659971</v>
       </c>
     </row>
     <row r="29">
@@ -7291,19 +7291,19 @@
         <v>1043579</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>990848</v>
+        <v>990336</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1096878</v>
+        <v>1099387</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3104241245340828</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2947389773797714</v>
+        <v>0.2945866715211385</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3262787111709132</v>
+        <v>0.3270250481846476</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1074</v>
@@ -7312,19 +7312,19 @@
         <v>1140188</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1083116</v>
+        <v>1084558</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1195538</v>
+        <v>1202837</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3243028207770791</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3080700079843075</v>
+        <v>0.3084801075744538</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3400460292351338</v>
+        <v>0.3421222173914486</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2077</v>
@@ -7333,19 +7333,19 @@
         <v>2183766</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2104321</v>
+        <v>2110192</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2261380</v>
+        <v>2258971</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3175188840909541</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3059674971252753</v>
+        <v>0.3068211507790596</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3288039459625006</v>
+        <v>0.3284536117395088</v>
       </c>
     </row>
     <row r="30">
@@ -7362,19 +7362,19 @@
         <v>390845</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>356965</v>
+        <v>355966</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>429084</v>
+        <v>432022</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1162612426191613</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1061831914183264</v>
+        <v>0.1058861287523963</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1276358768292706</v>
+        <v>0.1285099226036041</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>413</v>
@@ -7383,19 +7383,19 @@
         <v>446059</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>407492</v>
+        <v>408809</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>484575</v>
+        <v>486769</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1268723169729438</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1159025310517797</v>
+        <v>0.1162771898259091</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1378274062571005</v>
+        <v>0.1384514708435367</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>786</v>
@@ -7404,19 +7404,19 @@
         <v>836904</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>782676</v>
+        <v>788349</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>895335</v>
+        <v>900238</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1216856009206956</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1138007817731312</v>
+        <v>0.1146256406277114</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1301813378144837</v>
+        <v>0.130894368288757</v>
       </c>
     </row>
     <row r="31">
@@ -7433,19 +7433,19 @@
         <v>69749</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>53490</v>
+        <v>53640</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>86572</v>
+        <v>87421</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02074753185826755</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01591132703998305</v>
+        <v>0.01595577311216995</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02575187329194397</v>
+        <v>0.02600436611925327</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>59</v>
@@ -7454,19 +7454,19 @@
         <v>65856</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>51360</v>
+        <v>50558</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>84246</v>
+        <v>85690</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01873129908967953</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01460819359314229</v>
+        <v>0.0143801190078833</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02396211677719768</v>
+        <v>0.02437284298561427</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>126</v>
@@ -7475,19 +7475,19 @@
         <v>135604</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>113153</v>
+        <v>111429</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>164075</v>
+        <v>158737</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01971683801978574</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01645241402956672</v>
+        <v>0.01620166977938955</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02385638172887795</v>
+        <v>0.02308030102280393</v>
       </c>
     </row>
     <row r="32">
@@ -7504,19 +7504,19 @@
         <v>19989</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12480</v>
+        <v>12660</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31259</v>
+        <v>31855</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005946045624283706</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003712262525260274</v>
+        <v>0.003765989866999571</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.009298376739567248</v>
+        <v>0.009475496510397566</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -7525,19 +7525,19 @@
         <v>17223</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9502</v>
+        <v>9484</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28379</v>
+        <v>28112</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004898720285331124</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002702597377090696</v>
+        <v>0.00269764692806875</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008071865911397027</v>
+        <v>0.007995804175876796</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>34</v>
@@ -7546,19 +7546,19 @@
         <v>37212</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25153</v>
+        <v>26162</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>49977</v>
+        <v>50668</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005410655172069072</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003657249249558946</v>
+        <v>0.0038040087076911</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.007266656672977966</v>
+        <v>0.007367069753712529</v>
       </c>
     </row>
     <row r="33">
@@ -7890,19 +7890,19 @@
         <v>248282</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>224355</v>
+        <v>222405</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>274315</v>
+        <v>272745</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4991906294084772</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4510834296429054</v>
+        <v>0.4471616782292793</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5515309082520068</v>
+        <v>0.5483741102077033</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>410</v>
@@ -7911,19 +7911,19 @@
         <v>311572</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>290985</v>
+        <v>287714</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>335414</v>
+        <v>333548</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5007591281337083</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4676712164444174</v>
+        <v>0.4624132430439912</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5390775585958651</v>
+        <v>0.5360789007413976</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>617</v>
@@ -7932,19 +7932,19 @@
         <v>559855</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>528165</v>
+        <v>525129</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>593354</v>
+        <v>593279</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5000623209108008</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4717565478496334</v>
+        <v>0.4690448612854425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5299833462723496</v>
+        <v>0.5299163648421059</v>
       </c>
     </row>
     <row r="5">
@@ -7961,19 +7961,19 @@
         <v>123655</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103740</v>
+        <v>105541</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143338</v>
+        <v>145530</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2486181389186744</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2085765625888004</v>
+        <v>0.2121986318246967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2881908840914209</v>
+        <v>0.2925985422366161</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>222</v>
@@ -7982,19 +7982,19 @@
         <v>155141</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135260</v>
+        <v>135969</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>173930</v>
+        <v>176089</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2493430400615342</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2173894551291214</v>
+        <v>0.2185298312636968</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.279539709641846</v>
+        <v>0.2830104850941721</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>340</v>
@@ -8003,19 +8003,19 @@
         <v>278797</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>252073</v>
+        <v>249734</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>306623</v>
+        <v>308412</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2490210019596772</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2251516287300687</v>
+        <v>0.2230621367363693</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2738755578960188</v>
+        <v>0.2754734597074769</v>
       </c>
     </row>
     <row r="6">
@@ -8032,19 +8032,19 @@
         <v>53989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40926</v>
+        <v>41736</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68714</v>
+        <v>70472</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1085482769036233</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08228408603589633</v>
+        <v>0.08391436311288332</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.138155054377671</v>
+        <v>0.1416897890149536</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>121</v>
@@ -8053,19 +8053,19 @@
         <v>83531</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68337</v>
+        <v>69227</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>98747</v>
+        <v>98882</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1342512841707483</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1098318271667114</v>
+        <v>0.1112618905744313</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1587068778668149</v>
+        <v>0.1589223914879675</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>175</v>
@@ -8074,19 +8074,19 @@
         <v>137520</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>117101</v>
+        <v>118917</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>158478</v>
+        <v>161175</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1228326959206772</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1045942916417111</v>
+        <v>0.1062165406538239</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1415524501480835</v>
+        <v>0.1439614928268121</v>
       </c>
     </row>
     <row r="7">
@@ -8103,19 +8103,19 @@
         <v>49785</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37297</v>
+        <v>38034</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67893</v>
+        <v>68402</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1000955580303554</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07498790208993693</v>
+        <v>0.07647082379298691</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1365033424048819</v>
+        <v>0.1375282031222432</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -8124,19 +8124,19 @@
         <v>53602</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42290</v>
+        <v>43369</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65875</v>
+        <v>67604</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08614848062455122</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06796843864417844</v>
+        <v>0.06970318390104305</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1058737440934512</v>
+        <v>0.1086524400151077</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>127</v>
@@ -8145,19 +8145,19 @@
         <v>103386</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>86907</v>
+        <v>85425</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>125981</v>
+        <v>124371</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09234448456034132</v>
+        <v>0.09234448456034133</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07762566371736537</v>
+        <v>0.07630160831025184</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1125257959843887</v>
+        <v>0.1110884915401318</v>
       </c>
     </row>
     <row r="8">
@@ -8174,19 +8174,19 @@
         <v>21659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13688</v>
+        <v>13397</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31874</v>
+        <v>33075</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04354739673886967</v>
+        <v>0.04354739673886968</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02752166070127014</v>
+        <v>0.0269348228890392</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06408594614685685</v>
+        <v>0.06649963477012889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -8195,19 +8195,19 @@
         <v>18354</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12208</v>
+        <v>12548</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26123</v>
+        <v>26181</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.02949806700945794</v>
+        <v>0.02949806700945793</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0196212890817608</v>
+        <v>0.02016664062702872</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04198546546597199</v>
+        <v>0.04207891019247713</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>54</v>
@@ -8216,19 +8216,19 @@
         <v>40013</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30203</v>
+        <v>30069</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>52730</v>
+        <v>52817</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03573949664850342</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02697730834160843</v>
+        <v>0.02685724377584945</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04709830185947178</v>
+        <v>0.04717601887262302</v>
       </c>
     </row>
     <row r="9">
@@ -8320,19 +8320,19 @@
         <v>526136</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>490283</v>
+        <v>493729</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>560331</v>
+        <v>560749</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5492091507194673</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.511783629293331</v>
+        <v>0.5153807560537655</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5849033916801192</v>
+        <v>0.5853401212073751</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>862</v>
@@ -8341,19 +8341,19 @@
         <v>619542</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>590307</v>
+        <v>590815</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>649342</v>
+        <v>650110</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5555564620365475</v>
+        <v>0.5555564620365476</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5293408118071773</v>
+        <v>0.5297967343986099</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5822795000819879</v>
+        <v>0.5829679548101774</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1317</v>
@@ -8362,19 +8362,19 @@
         <v>1145677</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1101757</v>
+        <v>1099941</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1189037</v>
+        <v>1190673</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5526234281134068</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.531438461806231</v>
+        <v>0.5305622175173258</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5735380126994861</v>
+        <v>0.5743271415726757</v>
       </c>
     </row>
     <row r="11">
@@ -8391,19 +8391,19 @@
         <v>322579</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>291680</v>
+        <v>292424</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>354525</v>
+        <v>354917</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3367250083403371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.304471008881611</v>
+        <v>0.3052475113597267</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3700722702106155</v>
+        <v>0.3704815487297532</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>532</v>
@@ -8412,19 +8412,19 @@
         <v>360663</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>331857</v>
+        <v>334045</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>390108</v>
+        <v>389284</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3234144558514124</v>
+        <v>0.3234144558514125</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2975832577446266</v>
+        <v>0.2995458811561057</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3498183390350788</v>
+        <v>0.3490792906935036</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>858</v>
@@ -8433,19 +8433,19 @@
         <v>683242</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643068</v>
+        <v>640331</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>725909</v>
+        <v>726582</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3295651391936184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3101869849313676</v>
+        <v>0.3088668552343755</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3501459118781327</v>
+        <v>0.3504705166218225</v>
       </c>
     </row>
     <row r="12">
@@ -8462,19 +8462,19 @@
         <v>58598</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45039</v>
+        <v>45601</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73810</v>
+        <v>74090</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06116806893561532</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04701407165265661</v>
+        <v>0.0476008275009981</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07704676352096265</v>
+        <v>0.07733915884969671</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>141</v>
@@ -8483,19 +8483,19 @@
         <v>89869</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>75682</v>
+        <v>75150</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>105392</v>
+        <v>107234</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08058730740691188</v>
+        <v>0.08058730740691186</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06786539432181314</v>
+        <v>0.06738825046067137</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09450716670638125</v>
+        <v>0.09615900464873148</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>211</v>
@@ -8504,19 +8504,19 @@
         <v>148467</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>129385</v>
+        <v>128170</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>169769</v>
+        <v>170985</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07161385670431236</v>
+        <v>0.07161385670431238</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06240940576865621</v>
+        <v>0.06182365797345769</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08188872742765133</v>
+        <v>0.08247572367857998</v>
       </c>
     </row>
     <row r="13">
@@ -8533,19 +8533,19 @@
         <v>39734</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29571</v>
+        <v>30015</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54209</v>
+        <v>56386</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0414760660780336</v>
+        <v>0.04147606607803359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03086776827715028</v>
+        <v>0.03133082428835419</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05658589840246646</v>
+        <v>0.05885843675808215</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -8554,19 +8554,19 @@
         <v>37469</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28594</v>
+        <v>28268</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49185</v>
+        <v>47419</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03359902404108833</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02564084644054677</v>
+        <v>0.02534860987718057</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04410504432179307</v>
+        <v>0.04252157124447055</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -8575,19 +8575,19 @@
         <v>77202</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64050</v>
+        <v>62466</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95951</v>
+        <v>92649</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0372389323982214</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03089478064320893</v>
+        <v>0.03013095154180758</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04628239725270174</v>
+        <v>0.04468956488795212</v>
       </c>
     </row>
     <row r="14">
@@ -8604,19 +8604,19 @@
         <v>10942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5896</v>
+        <v>6150</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18367</v>
+        <v>18917</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01142170592654656</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006154903246245179</v>
+        <v>0.006420024930686204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01917290836949875</v>
+        <v>0.01974706625479073</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -8625,19 +8625,19 @@
         <v>7631</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3834</v>
+        <v>3944</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12794</v>
+        <v>13043</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006842750664039751</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003438290572879167</v>
+        <v>0.003536705354595025</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01147284920387577</v>
+        <v>0.01169636343031901</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -8646,19 +8646,19 @@
         <v>18573</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11854</v>
+        <v>11960</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27365</v>
+        <v>27358</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008958643590440898</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005717902551649438</v>
+        <v>0.005769050810810476</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01319957204001428</v>
+        <v>0.01319622691102744</v>
       </c>
     </row>
     <row r="15">
@@ -8750,19 +8750,19 @@
         <v>680704</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>648590</v>
+        <v>646565</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>712117</v>
+        <v>711639</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6504710559208992</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.619782803119051</v>
+        <v>0.6178476932950752</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6804884295819391</v>
+        <v>0.6800321636979512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>962</v>
@@ -8771,19 +8771,19 @@
         <v>679771</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>654647</v>
+        <v>651496</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>706343</v>
+        <v>708480</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6507903325676945</v>
+        <v>0.6507903325676943</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6267378254079227</v>
+        <v>0.6237210971430661</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6762297842439067</v>
+        <v>0.6782757791301084</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1591</v>
@@ -8792,19 +8792,19 @@
         <v>1360475</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1317018</v>
+        <v>1319088</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1400545</v>
+        <v>1403183</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6506305455250935</v>
+        <v>0.6506305455250936</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6298479858173576</v>
+        <v>0.6308378542343694</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6697936571076366</v>
+        <v>0.6710548998159773</v>
       </c>
     </row>
     <row r="17">
@@ -8821,19 +8821,19 @@
         <v>294894</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>265537</v>
+        <v>264975</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>324978</v>
+        <v>325143</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2817967891402208</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2537433992123873</v>
+        <v>0.2532066692054081</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3105438284742455</v>
+        <v>0.3107017299378034</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>442</v>
@@ -8842,19 +8842,19 @@
         <v>294603</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>270663</v>
+        <v>267616</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>319349</v>
+        <v>322509</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2820434291082704</v>
+        <v>0.2820434291082703</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2591243678554855</v>
+        <v>0.2562066249098061</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.305734680291546</v>
+        <v>0.3087592988929864</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>759</v>
@@ -8863,19 +8863,19 @@
         <v>589498</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>552665</v>
+        <v>551104</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>632593</v>
+        <v>627400</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2819199942392394</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2643051478209348</v>
+        <v>0.2635586226928009</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3025296970243922</v>
+        <v>0.3000466024124522</v>
       </c>
     </row>
     <row r="18">
@@ -8892,19 +8892,19 @@
         <v>53159</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40745</v>
+        <v>41023</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>68596</v>
+        <v>68823</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05079784912596162</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03893490331907831</v>
+        <v>0.03920087085347235</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06554900975350293</v>
+        <v>0.06576593239413979</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -8913,19 +8913,19 @@
         <v>46819</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36395</v>
+        <v>36306</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>61627</v>
+        <v>60088</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04482252190340058</v>
+        <v>0.04482252190340057</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0348432953582653</v>
+        <v>0.03475841329146332</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05900015472322327</v>
+        <v>0.05752646020320211</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>133</v>
@@ -8934,19 +8934,19 @@
         <v>99977</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>83567</v>
+        <v>81955</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>119827</v>
+        <v>120800</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04781296882474349</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03996472421517568</v>
+        <v>0.03919391259042019</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05730602790196037</v>
+        <v>0.05777115781959116</v>
       </c>
     </row>
     <row r="19">
@@ -8963,19 +8963,19 @@
         <v>11022</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6346</v>
+        <v>5857</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18348</v>
+        <v>17785</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0105326507623304</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006064090176554501</v>
+        <v>0.005596746278761081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01753274638636694</v>
+        <v>0.01699496261023197</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -8984,19 +8984,19 @@
         <v>16869</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10968</v>
+        <v>10842</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24146</v>
+        <v>25717</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01614960260756219</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01050072383911916</v>
+        <v>0.01038001801579551</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02311685512097313</v>
+        <v>0.02462070439531929</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -9005,19 +9005,19 @@
         <v>27891</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20242</v>
+        <v>20054</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39741</v>
+        <v>38988</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01333851030629314</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009680437381695795</v>
+        <v>0.00959080440864904</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01900542671258513</v>
+        <v>0.01864540849537166</v>
       </c>
     </row>
     <row r="20">
@@ -9034,19 +9034,19 @@
         <v>6699</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2967</v>
+        <v>2949</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13630</v>
+        <v>13337</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.006401655050588102</v>
+        <v>0.006401655050588103</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002835548202139542</v>
+        <v>0.002817931680447445</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01302445643393964</v>
+        <v>0.01274490336054768</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -9055,19 +9055,19 @@
         <v>6470</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3067</v>
+        <v>3028</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11828</v>
+        <v>11193</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.006194113813072435</v>
+        <v>0.006194113813072434</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002936412478994118</v>
+        <v>0.002899023102048087</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01132329229441522</v>
+        <v>0.01071606852642049</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -9076,19 +9076,19 @@
         <v>13169</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7910</v>
+        <v>7922</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20909</v>
+        <v>20755</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006297981104630472</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003782876113563745</v>
+        <v>0.003788535072543643</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009999639588389992</v>
+        <v>0.00992601319148234</v>
       </c>
     </row>
     <row r="21">
@@ -9180,19 +9180,19 @@
         <v>693184</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>663115</v>
+        <v>659155</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>720709</v>
+        <v>720548</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7102813879937383</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6794710116168312</v>
+        <v>0.6754130714468485</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7384847373798731</v>
+        <v>0.7383200419680503</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>873</v>
@@ -9201,19 +9201,19 @@
         <v>640688</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>616167</v>
+        <v>615972</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>662861</v>
+        <v>664622</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.706311941396438</v>
+        <v>0.7063119413964379</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6792786537569356</v>
+        <v>0.6790637812988334</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7307559998906938</v>
+        <v>0.73269644302896</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1501</v>
@@ -9222,19 +9222,19 @@
         <v>1333873</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1294363</v>
+        <v>1296407</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1372834</v>
+        <v>1372274</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7083692220091915</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6873869614627464</v>
+        <v>0.6884726036509605</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7290600251614037</v>
+        <v>0.728762636905257</v>
       </c>
     </row>
     <row r="23">
@@ -9251,19 +9251,19 @@
         <v>219288</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>192561</v>
+        <v>192820</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>246812</v>
+        <v>248002</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2246962249553882</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1973104155159223</v>
+        <v>0.1975761754330625</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2528992348263691</v>
+        <v>0.2541184435930269</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>364</v>
@@ -9272,19 +9272,19 @@
         <v>208790</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>187710</v>
+        <v>187822</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>231933</v>
+        <v>230517</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2301760656357691</v>
+        <v>0.230176065635769</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2069367283594857</v>
+        <v>0.207059648257691</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2556888211781463</v>
+        <v>0.2541281759816549</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>610</v>
@@ -9293,19 +9293,19 @@
         <v>428078</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>394016</v>
+        <v>393991</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>464332</v>
+        <v>466009</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2273359795642262</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2092469065674921</v>
+        <v>0.2092334488435625</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2465892329052566</v>
+        <v>0.247479922200233</v>
       </c>
     </row>
     <row r="24">
@@ -9322,19 +9322,19 @@
         <v>29553</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20285</v>
+        <v>20888</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40168</v>
+        <v>42004</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03028212949483793</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0207853519729616</v>
+        <v>0.02140288428407387</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04115825739594162</v>
+        <v>0.04303989328353146</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>36</v>
@@ -9343,19 +9343,19 @@
         <v>25896</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18006</v>
+        <v>17526</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37408</v>
+        <v>36663</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02854886116699301</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0198504009405244</v>
+        <v>0.01932102074571067</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04123932251677539</v>
+        <v>0.04041779989882838</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>70</v>
@@ -9364,19 +9364,19 @@
         <v>55450</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>43215</v>
+        <v>42173</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>70092</v>
+        <v>69392</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.02944717765524109</v>
+        <v>0.02944717765524108</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02294978582160625</v>
+        <v>0.02239655116534445</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03722294626357932</v>
+        <v>0.03685142805113736</v>
       </c>
     </row>
     <row r="25">
@@ -9393,19 +9393,19 @@
         <v>30116</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21260</v>
+        <v>20895</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41596</v>
+        <v>42455</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03085931218050119</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02178480361421119</v>
+        <v>0.02141038890169703</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04262241950111754</v>
+        <v>0.04350187493161987</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -9414,19 +9414,19 @@
         <v>22625</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15713</v>
+        <v>15720</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33560</v>
+        <v>32952</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02494252857301802</v>
+        <v>0.02494252857301801</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01732252358819748</v>
+        <v>0.01733002746457809</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03699776653273237</v>
+        <v>0.03632692534745768</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -9435,19 +9435,19 @@
         <v>52742</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41449</v>
+        <v>40434</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68609</v>
+        <v>67790</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02800907296583382</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02201207451521041</v>
+        <v>0.0214732162266712</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03643585745445462</v>
+        <v>0.03600066211728152</v>
       </c>
     </row>
     <row r="26">
@@ -9464,19 +9464,19 @@
         <v>3788</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1189</v>
+        <v>1209</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8597</v>
+        <v>10099</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003880945375534392</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001218193994705539</v>
+        <v>0.001239020798987872</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008808761893318268</v>
+        <v>0.01034835886608537</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -9485,19 +9485,19 @@
         <v>9090</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4703</v>
+        <v>4316</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18542</v>
+        <v>18006</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01002060322778196</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005184501502777338</v>
+        <v>0.004757649651618827</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02044123009094612</v>
+        <v>0.01985043303409206</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -9506,19 +9506,19 @@
         <v>12877</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7142</v>
+        <v>7358</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>21798</v>
+        <v>23499</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006838547805507363</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003792927786672842</v>
+        <v>0.003907338640125942</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.011575877713132</v>
+        <v>0.01247916292896314</v>
       </c>
     </row>
     <row r="27">
@@ -9610,19 +9610,19 @@
         <v>2148308</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2087764</v>
+        <v>2088349</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2204362</v>
+        <v>2210451</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6177260460013658</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6003172585411063</v>
+        <v>0.6004855614298895</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6338439470413073</v>
+        <v>0.6355948452201223</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3107</v>
@@ -9631,19 +9631,19 @@
         <v>2251573</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2196044</v>
+        <v>2203051</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2299433</v>
+        <v>2306958</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.6103488021840243</v>
+        <v>0.6103488021840242</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5952961526881005</v>
+        <v>0.5971956772271168</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6233225214656267</v>
+        <v>0.6253623070780623</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5026</v>
@@ -9652,19 +9652,19 @@
         <v>4399881</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4315431</v>
+        <v>4310192</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4477667</v>
+        <v>4479005</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6139287090720452</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6021451502427981</v>
+        <v>0.6014140883533755</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6247823923704867</v>
+        <v>0.6249691261921071</v>
       </c>
     </row>
     <row r="29">
@@ -9681,19 +9681,19 @@
         <v>960416</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>905142</v>
+        <v>905651</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1016492</v>
+        <v>1014947</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2761588139074339</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2602653020470298</v>
+        <v>0.2604116041945421</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.292282763421236</v>
+        <v>0.2918387544620595</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1560</v>
@@ -9702,19 +9702,19 @@
         <v>1019198</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>978002</v>
+        <v>969480</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1067809</v>
+        <v>1061322</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2762806898715535</v>
+        <v>0.2762806898715534</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2651135272890252</v>
+        <v>0.2628034760876182</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.289457996690258</v>
+        <v>0.2876994908889819</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2567</v>
@@ -9723,19 +9723,19 @@
         <v>1979614</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1905772</v>
+        <v>1910407</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2054227</v>
+        <v>2051016</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2762215479190521</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2659181028896536</v>
+        <v>0.2665648517479346</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2866325139503564</v>
+        <v>0.2861845145018373</v>
       </c>
     </row>
     <row r="30">
@@ -9752,19 +9752,19 @@
         <v>195299</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>170502</v>
+        <v>171207</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>221673</v>
+        <v>221616</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05615646514259749</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04902629218416048</v>
+        <v>0.04922892688568271</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06374011466200168</v>
+        <v>0.06372359187300583</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>369</v>
@@ -9773,19 +9773,19 @@
         <v>246115</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>222222</v>
+        <v>218889</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>275606</v>
+        <v>272513</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.06671597863813476</v>
+        <v>0.06671597863813475</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06023910797337742</v>
+        <v>0.05933559353563988</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0747103693648016</v>
+        <v>0.07387187153870504</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>589</v>
@@ -9794,19 +9794,19 @@
         <v>441414</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>406575</v>
+        <v>405422</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>479981</v>
+        <v>477160</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06159183254336122</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05673057358460732</v>
+        <v>0.05656974897996209</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06697319009085148</v>
+        <v>0.0665796417726599</v>
       </c>
     </row>
     <row r="31">
@@ -9823,19 +9823,19 @@
         <v>130657</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>109679</v>
+        <v>109328</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>156838</v>
+        <v>155872</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03756918094402305</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03153716794243538</v>
+        <v>0.03143630294176677</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04509717162608572</v>
+        <v>0.04481968430074289</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>196</v>
@@ -9844,19 +9844,19 @@
         <v>130564</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>113643</v>
+        <v>112573</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>152557</v>
+        <v>152397</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03539289956620827</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03080593534967927</v>
+        <v>0.03051588218717894</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04135456907565252</v>
+        <v>0.04131116868977922</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>338</v>
@@ -9865,19 +9865,19 @@
         <v>261221</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>233244</v>
+        <v>234302</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>292437</v>
+        <v>294362</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.03644896940578667</v>
+        <v>0.03644896940578668</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03254526010238896</v>
+        <v>0.03269286887994319</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0408046889001676</v>
+        <v>0.04107325237879436</v>
       </c>
     </row>
     <row r="32">
@@ -9894,19 +9894,19 @@
         <v>43088</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>32229</v>
+        <v>32988</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>58048</v>
+        <v>56702</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01238949400457982</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.009267039627435652</v>
+        <v>0.009485507592514644</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01669117825085461</v>
+        <v>0.01630413786377948</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>63</v>
@@ -9915,19 +9915,19 @@
         <v>41544</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>32069</v>
+        <v>31068</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>52590</v>
+        <v>54381</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01126162974007922</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008693288118605112</v>
+        <v>0.008421826053255256</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01425581314820241</v>
+        <v>0.01474147978125972</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>113</v>
@@ -9936,19 +9936,19 @@
         <v>84632</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>68820</v>
+        <v>69893</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>103209</v>
+        <v>102129</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01180894105975488</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009602673315546741</v>
+        <v>0.009752421496608543</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01440107807328281</v>
+        <v>0.01425031454897325</v>
       </c>
     </row>
     <row r="33">
